--- a/src/attributions/attributions_ig_traj_221.xlsx
+++ b/src/attributions/attributions_ig_traj_221.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG5"/>
+  <dimension ref="A1:GG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>-0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>-0</v>
       </c>
       <c r="X2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>-0</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>-0</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>-0</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>-0</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>-0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>-0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>-0</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>-0</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>-0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>-0</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>-0</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>-0</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>-0</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>-0</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1573,76 +1573,76 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0.3050611304352649</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.036079124506798</v>
+        <v>0.4726393428925968</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8053879166070776</v>
+        <v>0.09978968163162688</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3572955351489848</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0.009103980469607182</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.086360056964566</v>
+        <v>0.3255603886305961</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.4693039104258214</v>
+        <v>0.04351261490959426</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.3379565026998408</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0</v>
+        <v>-0.05221420602365129</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2194826850461046</v>
+        <v>0.2066874781147941</v>
       </c>
       <c r="V3" t="n">
         <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.02292692810346638</v>
+        <v>0.1158859184676732</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1651,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.1182975960476641</v>
+        <v>-0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>-0.02148130002792051</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.02263940903317212</v>
+        <v>0.08519283491813977</v>
       </c>
       <c r="AE3" t="n">
         <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.05681957135302848</v>
+        <v>-0.05194714172996148</v>
       </c>
       <c r="AG3" t="n">
         <v>-0</v>
@@ -1675,79 +1675,79 @@
         <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.4419484866987076</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>0.03664926907665584</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.252718188003343</v>
+        <v>-0.1071856748632241</v>
       </c>
       <c r="AN3" t="n">
         <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.04497549330677642</v>
+        <v>-0.1462916610838306</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.01572691962840124</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.02501868363225625</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.3277945966535584</v>
+        <v>0.380761975694141</v>
       </c>
       <c r="AW3" t="n">
         <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.1495764805499171</v>
+        <v>0.4258905991455501</v>
       </c>
       <c r="AY3" t="n">
         <v>-0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.2882144336057743</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>-0.1822166491175117</v>
       </c>
       <c r="BD3" t="n">
         <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.3687597567403674</v>
+        <v>0.01598688570218473</v>
       </c>
       <c r="BF3" t="n">
         <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.5009179657365745</v>
+        <v>0.02748464565704469</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
@@ -1756,25 +1756,25 @@
         <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.1720389786618091</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>-0.131519305183768</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0.4757465830019448</v>
+        <v>0.1184769285999194</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.2677291114375319</v>
+        <v>0.3914418238922932</v>
       </c>
       <c r="BQ3" t="n">
         <v>0</v>
@@ -1786,184 +1786,184 @@
         <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.07744925727974401</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0</v>
+        <v>-0.01459139548845959</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.1794019749985419</v>
+        <v>0.1065056599616347</v>
       </c>
       <c r="BX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.5240954492147083</v>
+        <v>0.3217759484579982</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB3" t="n">
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0.1686733038647076</v>
+        <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>0.03124746486421689</v>
       </c>
       <c r="CE3" t="n">
         <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0.2211078024256892</v>
+        <v>-0.1213285467856244</v>
       </c>
       <c r="CG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.1682625594692816</v>
+        <v>-0.06239868174711793</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK3" t="n">
         <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.04951056771229931</v>
+        <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0</v>
+        <v>-0.1645153653998349</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.251698083944736</v>
+        <v>0.1122127011319588</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.1769357570231269</v>
+        <v>-0.3443486107156875</v>
       </c>
       <c r="CR3" t="n">
         <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
         <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0.2424042689646303</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>0.01412971291664059</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>-0.2231482609234489</v>
+        <v>-0.09859092807838056</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2697757222178719</v>
+        <v>0.009379685930567703</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.1062968228105647</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>0</v>
+        <v>0.1077363748596687</v>
       </c>
       <c r="DF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0.1659473784461512</v>
+        <v>0.006243889230513396</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.007331262758277664</v>
+        <v>-0.02387840545177806</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.004477402903946618</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0</v>
+        <v>-0.2607999511367259</v>
       </c>
       <c r="DO3" t="n">
         <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.05202443126438361</v>
+        <v>-0.05403832432986554</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.02039800425939034</v>
+        <v>-0.2097052349936486</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
         <v>-0</v>
       </c>
       <c r="DU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0.04019526414574477</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0</v>
+        <v>-0.07509154097535253</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.002252407316936825</v>
+        <v>0.007401668338202348</v>
       </c>
       <c r="DZ3" t="n">
         <v>-0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.02060692290766976</v>
+        <v>-0.1040253827474424</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
@@ -1975,22 +1975,22 @@
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.09172382025925853</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>-0.03412716965529089</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0.293272583252165</v>
+        <v>-0.2580930429170445</v>
       </c>
       <c r="EI3" t="n">
         <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.1468162150349654</v>
+        <v>0.06653279658850078</v>
       </c>
       <c r="EK3" t="n">
         <v>-0</v>
@@ -1999,28 +1999,28 @@
         <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.01130181255241405</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>-0.1625514634590845</v>
       </c>
       <c r="EP3" t="n">
         <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.06792384489082291</v>
+        <v>-0.04151321224487386</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.1448697244958669</v>
+        <v>-0.06729387113410759</v>
       </c>
       <c r="ET3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU3" t="n">
         <v>0</v>
@@ -2029,52 +2029,52 @@
         <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.07712380246047101</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0</v>
+        <v>-0.002804224805813155</v>
       </c>
       <c r="EY3" t="n">
         <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.2396187161906133</v>
+        <v>-0.1127818497219317</v>
       </c>
       <c r="FA3" t="n">
         <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.2038748691422401</v>
+        <v>-0.002819387887120645</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.1159266087592844</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0</v>
+        <v>0.09861527424957434</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
-        <v>-0.2195120417344051</v>
+        <v>0.03499493117741827</v>
       </c>
       <c r="FJ3" t="n">
         <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.2809085648676006</v>
+        <v>0.0969900162116122</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
         <v>-0</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.2123752160538776</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>-0.02201891928141997</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0.1800020979745635</v>
+        <v>-0.0001615682892156425</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.009767306879445952</v>
+        <v>-0.0015806755276241</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
         <v>-0</v>
@@ -2110,16 +2110,16 @@
         <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.002148416226884209</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>0.01510767271974528</v>
       </c>
       <c r="FZ3" t="n">
         <v>-0</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.1320783414034711</v>
+        <v>0.1063723644036862</v>
       </c>
       <c r="GB3" t="n">
         <v>-0</v>
@@ -2128,16 +2128,16 @@
         <v>-0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.1626288309978112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,16 +2145,16 @@
         <v>-0</v>
       </c>
       <c r="B4" t="n">
-        <v>1.108495407894216</v>
+        <v>-0.4241253634342238</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7342266097465056</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0.3032583689442004</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2241331897836053</v>
+        <v>0.3311817726706877</v>
       </c>
       <c r="F4" t="n">
         <v>-0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>-0</v>
@@ -2172,16 +2172,16 @@
         <v>-0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.282922709492667</v>
+        <v>-0.2277350909413665</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.8807772404454001</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>0.1818651587271091</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01449439783368712</v>
+        <v>0.3048929388792337</v>
       </c>
       <c r="O4" t="n">
         <v>-0</v>
@@ -2190,163 +2190,163 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.200426793549923</v>
+        <v>-0.1705371058137986</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.04579896592247401</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.03190317814942223</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02034209563996608</v>
+        <v>0.07586295370500065</v>
       </c>
       <c r="X4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.2005980361222764</v>
+        <v>-0.132041280087239</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.07820510247967502</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>-0.04652699199262338</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.01889626600728438</v>
+        <v>-0.02241695841358442</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
         <v>-0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.3831661671838721</v>
+        <v>-0.192344567657654</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.447903484931115</v>
+        <v>-0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0</v>
+        <v>-0.03145357094804983</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.08374011258608957</v>
+        <v>0.1029357818634403</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.5996539493117833</v>
+        <v>-0.5043156887187102</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.3763983781810397</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0</v>
+        <v>0.186903174316421</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.008447754757750685</v>
+        <v>0.1087929246506127</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.2607200919213519</v>
+        <v>-0.02340165574407702</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.3271743169626719</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>-0.0192152662613653</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.3030494029469828</v>
+        <v>0.4033826027542541</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
         <v>0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL4" t="n">
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.1135471461130973</v>
+        <v>0.003716683223234377</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.1304725713428917</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>-0.04127150395093469</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.3238286725541565</v>
+        <v>-0.07010142515816149</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR4" t="n">
         <v>0</v>
@@ -2355,28 +2355,28 @@
         <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.2980799404276526</v>
+        <v>-0.2532633965094973</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.3680467597258816</v>
+        <v>-0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>0.07234269478293086</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.06580643021213585</v>
+        <v>0.2031648354844097</v>
       </c>
       <c r="BZ4" t="n">
         <v>0</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
@@ -2388,49 +2388,49 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0.2541232651680415</v>
+        <v>0.1009534333123384</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.08950987991383126</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>-0.03581865970345348</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.001555985041168771</v>
+        <v>-0.03546184322032823</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK4" t="n">
         <v>-0</v>
       </c>
       <c r="CL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM4" t="n">
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.1645758070120674</v>
+        <v>-0.06815956606179382</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.1124941246742899</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0</v>
+        <v>0.06507911912386975</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.03615611913493811</v>
+        <v>0.02859305627715869</v>
       </c>
       <c r="CR4" t="n">
         <v>-0</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT4" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0.1935589147637779</v>
+        <v>0.08816711652087875</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.05457993963164266</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>-0.06406959025953737</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.07350130197469883</v>
+        <v>-0.02769768651015489</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0.3624078758442121</v>
+        <v>0.1344433541955707</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.06491761446310133</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0.0003197722076182109</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.004899564807636603</v>
+        <v>-0.0002511463139896309</v>
       </c>
       <c r="DJ4" t="n">
         <v>-0</v>
@@ -2487,7 +2487,7 @@
         <v>-0</v>
       </c>
       <c r="DL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM4" t="n">
         <v>-0</v>
@@ -2496,79 +2496,79 @@
         <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.1322139925786799</v>
+        <v>0.1838751153126888</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.1942352800026591</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>-0.06372833872714523</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.2320009753433044</v>
+        <v>0.01026111816626162</v>
       </c>
       <c r="DS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW4" t="n">
         <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.07206127570892859</v>
+        <v>0.000339961817174433</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.2248184703550669</v>
+        <v>-0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>0.09762849780572053</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.06312691563086534</v>
+        <v>0.1101543461112237</v>
       </c>
       <c r="EB4" t="n">
         <v>-0</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.06963349607446101</v>
+        <v>-0.1041893524643479</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.174005538030444</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>-0.130084279672901</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.05393468395205395</v>
+        <v>-0.06276627842019018</v>
       </c>
       <c r="EK4" t="n">
         <v>0</v>
       </c>
       <c r="EL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
@@ -2577,25 +2577,25 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0.01931468906247836</v>
+        <v>0.06882881144067128</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.05660708947950887</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0</v>
+        <v>-0.02905283851749193</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.150958627746426</v>
+        <v>0.05184966463845747</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW4" t="n">
         <v>0</v>
@@ -2604,25 +2604,25 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0.1700414874267956</v>
+        <v>0.07262907738050278</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.1049886833245597</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>-0.0603192514074543</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.05265260066243227</v>
+        <v>-0.02688294094697217</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
         <v>0</v>
@@ -2631,16 +2631,16 @@
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.2897723344834435</v>
+        <v>0.01595599704283748</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.3836479148491325</v>
+        <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>-0.1571212562722661</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.05130883937820132</v>
+        <v>-0.04746426537126881</v>
       </c>
       <c r="FL4" t="n">
         <v>-0</v>
@@ -2655,46 +2655,46 @@
         <v>-0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.3543298977071261</v>
+        <v>-0.009452389438714692</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0.007538907117242204</v>
+        <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0</v>
+        <v>-0.01215199992931176</v>
       </c>
       <c r="FT4" t="n">
-        <v>-0.01777981532625363</v>
+        <v>0.002378694587652986</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW4" t="n">
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-0.03110081803313851</v>
+        <v>0.02057229452813161</v>
       </c>
       <c r="GA4" t="n">
-        <v>-0.115922524386343</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0</v>
+        <v>0.08139137662324451</v>
       </c>
       <c r="GC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD4" t="n">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2714,19 +2714,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0.3595239659945326</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1918948061953517</v>
       </c>
       <c r="E5" t="n">
-        <v>-0</v>
+        <v>0.217961686878524</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2741,43 +2741,43 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.290603672443886</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.2105292914795927</v>
       </c>
       <c r="N5" t="n">
-        <v>-0</v>
+        <v>0.2389788726610567</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-0.1015994294792082</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.01694052201451101</v>
       </c>
       <c r="W5" t="n">
-        <v>-0</v>
+        <v>-0.04183647001244236</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0.1524543817303817</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-0.05730643156480612</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0</v>
+        <v>-0.03112473842292171</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -2819,49 +2819,49 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0.03530618224662264</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.04496369266459647</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0</v>
+        <v>0.07773047799036843</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-0.2823760744888923</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>0.009386233642463646</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0</v>
+        <v>-0.01912585227520819</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
@@ -2876,49 +2876,49 @@
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.01270378074326078</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>0.1947370835745189</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0</v>
+        <v>0.2801864307627785</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL5" t="n">
         <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0.09746939744970234</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>-0.03966367599017617</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0</v>
+        <v>-0.1006469971429728</v>
       </c>
       <c r="BQ5" t="n">
         <v>0</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0.2214552231237848</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>0.001954980983664282</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0</v>
+        <v>0.04295490695730891</v>
       </c>
       <c r="BZ5" t="n">
         <v>0</v>
@@ -2951,22 +2951,22 @@
         <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>0.09111559250187642</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>-0.04630099311145542</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0</v>
+        <v>0.002501104486842532</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
@@ -2975,28 +2975,28 @@
         <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.03036194770759994</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0.06177633397348618</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0</v>
+        <v>0.08264093758651204</v>
       </c>
       <c r="CR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS5" t="n">
         <v>0</v>
@@ -3011,124 +3011,124 @@
         <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>0.08768772856841285</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0</v>
+        <v>-0.06427216599515229</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0</v>
+        <v>-0.003251567564702623</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.1674791704590838</v>
       </c>
       <c r="DG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0.05120534549396998</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0</v>
+        <v>-0.008569236863323306</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK5" t="n">
         <v>0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN5" t="n">
         <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>0.0444027720261606</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0</v>
+        <v>0.03951346969164644</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0</v>
+        <v>0.06924336164510286</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT5" t="n">
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>0.1020258637098203</v>
       </c>
       <c r="DY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>-0.09150862549650279</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0</v>
+        <v>0.05065278254419057</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>0.05382829121024003</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0</v>
+        <v>-0.04169300521635982</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0</v>
+        <v>-0.1036737619249987</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
@@ -3143,25 +3143,25 @@
         <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>0.0004639062558998706</v>
       </c>
       <c r="EQ5" t="n">
         <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>0.03281302057021471</v>
       </c>
       <c r="ES5" t="n">
-        <v>-0</v>
+        <v>0.02831961310528018</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
@@ -3170,46 +3170,46 @@
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>0.09068410370469708</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>-0.05954802278726774</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0</v>
+        <v>-0.005773934316406578</v>
       </c>
       <c r="FC5" t="n">
         <v>0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
         <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>0.05169731641457217</v>
       </c>
       <c r="FI5" t="n">
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>0.08810583646586569</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0</v>
+        <v>-0.04179208425015184</v>
       </c>
       <c r="FL5" t="n">
         <v>0</v>
@@ -3218,52 +3218,52 @@
         <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.02522769737549652</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0</v>
+        <v>0.03322027598198776</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0</v>
+        <v>0.009205554983633504</v>
       </c>
       <c r="FU5" t="n">
         <v>0</v>
       </c>
       <c r="FV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY5" t="n">
         <v>0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>0.05225639164725931</v>
       </c>
       <c r="GA5" t="n">
         <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>0.06616922842704878</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
         <v>0</v>
@@ -3272,9 +3272,2854 @@
         <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4870340664615532</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.1171038079518017</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.4436249964418046</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4564442769178869</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.05570592675916219</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.4518573142021146</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.03678668043720053</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.08439262822239568</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.01567068857811676</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.02363507836424826</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.01012467495818293</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.03447034086699631</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.08346482370634739</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.001425139274130004</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-0.08288815890890448</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.4142823062989933</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>-0.07056162875261536</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>-0.2195072107427806</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.1084983479853896</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>-0.1511296373082835</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>-0.1920463743209763</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.1430673738132707</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>-0.003506804419984493</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.01774829638850664</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.2174578064331273</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>-0.07027843473932166</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>-0.1317131469424722</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>-0.08493679991571336</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>-0.005132296706541574</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.107260316561954</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>1.411111576022698e-05</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.01656313510158922</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>-0.02173635870421967</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>-0.06794519309467903</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>-0.002517826506811512</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>0.1129463761574095</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>-0.04002326517017469</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0.0444566794875837</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>-0.001614683906987056</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0.006081052987154392</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>0.03351720870604942</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>-0.00651404814989466</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>-0.05777594466092893</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>0.01639577769065341</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>0.05440360332127209</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>-0.09693440032671177</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>0.02439302318152298</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>0.1195640580710318</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>-0.02990216264525762</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>-0.01296633880913288</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>0.07094629067274934</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>-0.06543195927951648</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>0.006229404879093165</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>0.1024537790435004</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>-0.002535719417640378</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>-0.008508884200727705</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>0.05172385674770193</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>0.004963051982165477</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>-0.008810654514323803</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>0.03438754936987051</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>0.04462418624405818</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>-0.05108333755087999</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1555227955103367</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.08280241633837762</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.07228254118439849</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1280013609926359</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.05768573777505789</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.07598714090533507</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.01378244307605709</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.004451178988662641</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.009296517155136153</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.004937052603166965</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.01397086337945391</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.01246458326384953</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.01048426267962558</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.008843058167262783</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.01472490147678882</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.1072825700670186</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>-0.02880010261672456</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>-0.02119212093019258</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.03149636970574076</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>-0.05775229627875221</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>-0.05909104473704765</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.03556435611813727</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.0160377211932141</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.01704690532514525</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.05103091105067987</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>-0.01218046926464564</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>-0.01384008897907786</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>-0.02622308846222178</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.007127736093176795</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.01772200217820961</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.0008607606247808709</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>-0.007075855757484145</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>-0.01179765717120735</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>-0.01997228527183853</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0.006098553888960175</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0.01817422480022265</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>-0.03236358042313904</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0.05139714038333401</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0.01369322867674388</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>-0.005787316285419271</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0.01937102480609069</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>-0.009748317299426336</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>-0.02951577427682513</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0.01498315768491325</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0.01825960522851271</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>-0.0315053328593496</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>0.00944317674849344</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0.01334605781814872</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>-0.01243019102766987</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>0.002243096035829807</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>-0.01165242559899074</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>-0.0208915055260241</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0.009264301360075101</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>0.02170654796978215</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>-0.01511337365004362</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>0.0113268961668335</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>0.01985781488408164</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>7.644719732458803e-05</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>-0.001509859052916248</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>0.01880918805336776</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>0.001820653164314721</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>-0.005457780234660795</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1266462604957166</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.0359596502453245</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.1458807809284861</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1005695273084039</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.002737779122467324</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.0997243053547566</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.01760666690443216</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.03898100455986269</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.02367567826519899</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.01516222809156062</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.02746700724001907</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.02875747820365326</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.02170311454758471</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.007094937415410008</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-0.01299687962429524</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.08472652476482592</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>-0.1007914678233191</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>-0.08600565149370705</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.01499549256361632</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.01190784752073141</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>-0.04702454220862393</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.007487808577764449</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.003610416424803363</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.008104688305153049</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0.03643594286452657</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>-0.03598242985426318</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>-0.06421245250715174</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>-0.02249073403637856</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.01066464430794283</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.04343561869056956</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.004126862283695319</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.06820944344543946</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0.001346799260798693</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>-0.02108001772460196</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>0.01460815439289092</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0.03937246904179714</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>-0.0001534932277220459</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0.03079357996395915</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0.001550474019576347</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>-0.0005372762060466832</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>0.03730876190525402</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>0.01723860783134225</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>-0.008746059748456648</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>0.01650795672862657</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>0.03860945368572078</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>-0.02203262574153988</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>-0.003408451035381646</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>0.04728923408716374</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>-0.01277627041603102</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>0.02803751493072065</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>0.002817743768328517</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>-0.01808398236400945</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>0.02408577528846209</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>0.04115578127544132</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>0.007376195651755181</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>0.01202097803954294</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>-0.002121784118489793</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>0.0006546982649096399</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>-0.0006216824476783274</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>0.01139849522618542</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>0.00460258118434362</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>0.01054367872908787</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GG10" t="n">
         <v>0</v>
       </c>
     </row>
